--- a/CRM/Mapeos_INV_CRM_V1.xlsx
+++ b/CRM/Mapeos_INV_CRM_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="615" windowWidth="9225" windowHeight="4410" tabRatio="583" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="285" yWindow="615" windowWidth="9225" windowHeight="4410" tabRatio="583" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="PS_AA_PJ_INF_BASIC" sheetId="8" r:id="rId1"/>
@@ -2529,7 +2529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4165" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4174" uniqueCount="928">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -7238,7 +7238,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7248,8 +7248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S249"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:K10"/>
+    <sheetView topLeftCell="L238" workbookViewId="0">
+      <selection activeCell="R113" sqref="R113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10348,7 +10348,9 @@
       <c r="Q112" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R112" s="58"/>
+      <c r="R112" s="58" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="113" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L113" s="56"/>
@@ -12983,7 +12985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -13960,7 +13962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:J4"/>
     </sheetView>
   </sheetViews>
@@ -14381,7 +14383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R22"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J12" sqref="J12:K13"/>
     </sheetView>
   </sheetViews>
@@ -15066,7 +15068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -15794,7 +15796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R23"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -16322,8 +16324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S232"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="L4" workbookViewId="0">
+      <selection activeCell="R152" sqref="R152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20239,7 +20241,9 @@
       <c r="Q135" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R135" s="58"/>
+      <c r="R135" s="58" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="136" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L136" s="99"/>
@@ -20677,7 +20681,9 @@
       <c r="Q158" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="R158" s="140"/>
+      <c r="R158" s="140" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="159" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L159" s="99"/>
@@ -23213,8 +23219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J4"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23579,7 +23585,9 @@
       <c r="Q13" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="R13" s="140"/>
+      <c r="R13" s="140" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="26">
@@ -24419,7 +24427,7 @@
   <dimension ref="B1:R159"/>
   <sheetViews>
     <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24723,7 +24731,9 @@
       <c r="Q11" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="R11" s="63"/>
+      <c r="R11" s="63" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="26">
@@ -27366,7 +27376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:J4"/>
     </sheetView>
   </sheetViews>
@@ -28096,8 +28106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R44"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="K40" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28700,7 +28710,9 @@
       <c r="Q20" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="R20" s="140"/>
+      <c r="R20" s="140" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="26">
@@ -28734,7 +28746,9 @@
       <c r="Q21" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R21" s="58"/>
+      <c r="R21" s="58" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="26">
@@ -29404,8 +29418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R41"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView topLeftCell="K19" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29915,7 +29929,9 @@
       <c r="Q17" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="R17" s="140"/>
+      <c r="R17" s="140" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="26">
@@ -29949,7 +29965,9 @@
       <c r="Q18" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R18" s="58"/>
+      <c r="R18" s="58" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" s="26">
